--- a/aircraft/reports/sightings-over-time-monthly.xlsx
+++ b/aircraft/reports/sightings-over-time-monthly.xlsx
@@ -1032,7 +1032,7 @@
         <v>45870</v>
       </c>
       <c r="B74" t="n">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
